--- a/data/trans_dic/P36BPD04_R_2023-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P36BPD04_R_2023-Dificultad-trans_dic.xlsx
@@ -570,7 +570,7 @@
         <v>0.7513878196256522</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.7385173854481413</v>
+        <v>0.7385173854481414</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.6774188070542567</v>
+        <v>0.672913763412001</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.7178128968332645</v>
+        <v>0.7173871649078122</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.7114240689003234</v>
+        <v>0.7099104268509681</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.7662946025191124</v>
+        <v>0.7627270670877804</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.784024369813627</v>
+        <v>0.7825870727261064</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.7642154259215761</v>
+        <v>0.7670068045427928</v>
       </c>
     </row>
     <row r="7">
@@ -619,13 +619,13 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.788928402967942</v>
+        <v>0.7889284029679419</v>
       </c>
       <c r="D7" s="5" t="n">
         <v>0.8158730103872458</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.8034079527322305</v>
+        <v>0.8034079527322304</v>
       </c>
     </row>
     <row r="8">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.7576301539790025</v>
+        <v>0.7577222853902793</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.7935081376182295</v>
+        <v>0.7944696922845055</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.7846158168993138</v>
+        <v>0.7863126296318794</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.8186807142984647</v>
+        <v>0.8174750216170026</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.8367456272811915</v>
+        <v>0.8367032566187529</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.821197066315944</v>
+        <v>0.8213521305033598</v>
       </c>
     </row>
     <row r="10">
@@ -677,10 +677,10 @@
         <v>0.7216532967636291</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.7627386854046345</v>
+        <v>0.7627386854046346</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.7422019073794724</v>
+        <v>0.7422019073794726</v>
       </c>
     </row>
     <row r="11">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.6922231770315307</v>
+        <v>0.6903877503253243</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.7396333088428558</v>
+        <v>0.7387654087652509</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.7246294612102842</v>
+        <v>0.7221068513138948</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.7510352324221103</v>
+        <v>0.7527512859072291</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.7851910496958036</v>
+        <v>0.7862512116493685</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.7630359346052061</v>
+        <v>0.7610967815943092</v>
       </c>
     </row>
     <row r="13">
@@ -732,7 +732,7 @@
         <v>0.7935467656138945</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.8244682015589436</v>
+        <v>0.8244682015589435</v>
       </c>
       <c r="E13" s="5" t="n">
         <v>0.8084438833302716</v>
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.7606151973407771</v>
+        <v>0.7614051087497529</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.7984459842450938</v>
+        <v>0.7981695143464868</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.7892821644925527</v>
+        <v>0.7878732370548619</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.8234833948846009</v>
+        <v>0.8221352301739913</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.8481781937046399</v>
+        <v>0.8462781129394407</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.8293411908448463</v>
+        <v>0.8277293341698281</v>
       </c>
     </row>
     <row r="16">
@@ -787,10 +787,10 @@
         <v>0.7604747683701544</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.7920386066959675</v>
+        <v>0.7920386066959674</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.7767217310911633</v>
+        <v>0.7767217310911635</v>
       </c>
     </row>
     <row r="17">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.7428007569366381</v>
+        <v>0.7432754098619462</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.7785044437417432</v>
+        <v>0.7801161859316708</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.7670018449282175</v>
+        <v>0.7662195666867729</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.775597805131268</v>
+        <v>0.7775982498833548</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.8039695787765301</v>
+        <v>0.8043128130958156</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.7863266916968069</v>
+        <v>0.7864286225280785</v>
       </c>
     </row>
     <row r="19">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>337855</v>
+        <v>335608</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>447206</v>
+        <v>446941</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>798041</v>
+        <v>796343</v>
       </c>
     </row>
     <row r="7">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>382181</v>
+        <v>380402</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>488457</v>
+        <v>487561</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>857259</v>
+        <v>860391</v>
       </c>
     </row>
     <row r="8">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>727429</v>
+        <v>727517</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>885004</v>
+        <v>886077</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>1628425</v>
+        <v>1631946</v>
       </c>
     </row>
     <row r="11">
@@ -1055,13 +1055,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>786046</v>
+        <v>784888</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>933227</v>
+        <v>933180</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>1704347</v>
+        <v>1704669</v>
       </c>
     </row>
     <row r="12">
@@ -1110,13 +1110,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>724397</v>
+        <v>722476</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>774457</v>
+        <v>773548</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>1517056</v>
+        <v>1511775</v>
       </c>
     </row>
     <row r="15">
@@ -1127,13 +1127,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>785943</v>
+        <v>787738</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>822159</v>
+        <v>823269</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1597462</v>
+        <v>1593403</v>
       </c>
     </row>
     <row r="16">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>742306</v>
+        <v>743077</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>724413</v>
+        <v>724162</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>1486382</v>
+        <v>1483729</v>
       </c>
     </row>
     <row r="19">
@@ -1199,13 +1199,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>803661</v>
+        <v>802346</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>769534</v>
+        <v>767810</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>1561822</v>
+        <v>1558787</v>
       </c>
     </row>
     <row r="20">
@@ -1254,13 +1254,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>2585900</v>
+        <v>2587553</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>2874767</v>
+        <v>2880719</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>5502443</v>
+        <v>5496831</v>
       </c>
     </row>
     <row r="23">
@@ -1271,13 +1271,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>2700076</v>
+        <v>2707040</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>2968802</v>
+        <v>2970069</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>5641079</v>
+        <v>5641810</v>
       </c>
     </row>
     <row r="24">
